--- a/doc/SA cert/Reviewer/reviewer1_TranAnhTai_Park.xlsx
+++ b/doc/SA cert/Reviewer/reviewer1_TranAnhTai_Park.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LGE_Projects\인증심사\2023\3차\Tran Anh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikt/Documents/code/codefun/doc/SA cert/Reviewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27127303-54ED-4F9F-A9F3-813A318AFBB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073647E6-F0D2-AB41-BCBE-0E0A9D1FEEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>평가항목</t>
   </si>
@@ -255,6 +255,47 @@
   </si>
   <si>
     <t>QnA</t>
+  </si>
+  <si>
+    <t>I updated it in part 2.1.3 of new version.</t>
+  </si>
+  <si>
+    <t>I updated it.</t>
+  </si>
+  <si>
+    <t>I describled more detail role of BAM, WUC, NAD on System Context View. Please see on part 4.1.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actually for performance QA, It is mentioned in REQ-QA-01, REQ-QA-02. I used a Dynamic Task Executor with thread pool to fullfill these performance QA.
+Reason I select Scalability is because I propose an Async Helper to handle requests asynchronously. I think purpose of handling asynchronously is to increase scalability. Would you please provide your opinion? </t>
+  </si>
+  <si>
+    <t>I change it to Modifiability.</t>
+  </si>
+  <si>
+    <t>Do you means a quality attribute about security? Sorry I didn't understand your question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, you are correct. </t>
+  </si>
+  <si>
+    <t>I updated it as your suggestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not really a proxy-stub model. Services on BAM SoC need communicate with NAD Manager to get any required data from NAD SoC. So, NAD Manager role is to provides required data to BAM services. Meanwhile, NAD Proxy is to interface between BAM and NAD. Its job is to relay message between NAD Manager and other components on NAD SoC. I change NAD Proxy to NAD Relay to avoid concusing. </t>
+  </si>
+  <si>
+    <t>No, the doesn't not offer same feature. 
+The role of NAD Manage is to communicate with NAD for following data:
+•	Coding
+•	Provisioning
+•	Secure ECU Mode
+•	Diagnostics (caching)
+•	eCall data for backend upload
+And role of NAD Relay (Proxy) is to Interface between NAD and BAM, relays binder interfaces to SOME/IP interfaces.</t>
+  </si>
+  <si>
+    <t>It is a mistake. I will correct it soon.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,9 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,7 +481,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,1114 +764,1136 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="67.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="67.83203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="16">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="38.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" ht="48">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.5">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="32">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="38.25">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="48">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="80">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="38.25">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="48">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>11</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="25.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="32">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="38.25">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="48">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="38.25">
-      <c r="A14" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="48">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>22</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="76.5">
-      <c r="A15" s="4" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="96">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>26</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="51">
-      <c r="A16" s="4" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="160">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="38.25">
-      <c r="A17" s="4" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="48">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>47</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="6"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="6"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="6"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="6"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="6"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="6"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="6"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="6"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="6"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="6"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="6"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="6"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="6"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="6"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="6"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="6"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="6"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="6"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="6"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="6"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="6"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="6"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="6"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="6"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="6"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="6"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="6"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="6"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="6"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1878,13 +1938,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1927,7 +1987,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1938,7 +1998,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1949,7 +2009,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1960,12 +2020,12 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1977,7 +2037,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1988,7 +2048,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
